--- a/OutPyShiftReports/Shift_Reports.xlsx
+++ b/OutPyShiftReports/Shift_Reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Dept\Maintenance\Private\AutomationTech\OutPy - Outlook Shift Report Scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdengler\Documents\GitHub\Bridor-Parts-Parser\OutPyShiftReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F94E6F-AA73-4B45-880C-8311C7FFC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449174AD-BC61-468B-927E-432EAEE2189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="390" windowWidth="25185" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25185" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="556">
   <si>
     <t>Subject</t>
   </si>
@@ -32,6 +32,38 @@
   </si>
   <si>
     <t>Body</t>
+  </si>
+  <si>
+    <t>1/ 30/ 25 Maintenance shift report</t>
+  </si>
+  <si>
+    <t>Edward Wright</t>
+  </si>
+  <si>
+    <t>2025-01-31 04:19:28</t>
+  </si>
+  <si>
+    <t>V5
+2021 - 2030 / Metal detector / belt stopped running / hit e-stop and reset all safeties to reset line for belt to start
+2052 - 2104 / Down hill conveyor to mec 1 / belt stopped running / found no vmi tripped / reboot panel to restart
+/ Edward Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mech shift report </t>
+  </si>
+  <si>
+    <t>Virgilio Gutierrez</t>
+  </si>
+  <si>
+    <t>2025-01-30 15:56:45</t>
+  </si>
+  <si>
+    <t>V5 belt was installed on l5-680
+v5 reinstalled v belt on pop up conveyor
+V5 box machine suction arm had to replace block bearing
+V5 replaced drive roller on mech 1
+v5 had to weld broken welds on tape machine frame
+/ Virgilio Gutierrez</t>
   </si>
   <si>
     <t>Night shift, Wednesday 1/29/25</t>
@@ -92,9 +124,6 @@
     <t>1/ 27/ 25 Maintenance shift report</t>
   </si>
   <si>
-    <t>Edward Wright</t>
-  </si>
-  <si>
     <t>2025-01-28 04:25:10</t>
   </si>
   <si>
@@ -105,9 +134,6 @@
   </si>
   <si>
     <t>mech shift report</t>
-  </si>
-  <si>
-    <t>Virgilio Gutierrez</t>
   </si>
   <si>
     <t>2025-01-27 16:43:36</t>
@@ -341,9 +367,6 @@
 0230 - 0300 - Brushes not running in shaping section / controller and relay fault , also found  3 blown fuses / replacement of the ten amp fuses and reboot to clear
 0330 - 0345 - BCT / pump speed had to be adjusted to properly fill the dispenser
 / Edward Wright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mech shift report </t>
   </si>
   <si>
     <t>2025-01-17 16:57:56</t>
@@ -3500,10 +3523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3512,8 +3535,8 @@
     <col min="2" max="2" width="14.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="124.625" style="4" customWidth="1"/>
-    <col min="5" max="42" width="9" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="1"/>
+    <col min="5" max="43" width="9" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -3530,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3544,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -3558,54 +3581,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -3614,12 +3637,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>26</v>
@@ -3628,54 +3651,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="379.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>39</v>
@@ -3684,68 +3707,68 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>52</v>
@@ -3754,82 +3777,82 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>68</v>
@@ -3838,40 +3861,40 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>77</v>
@@ -3880,7 +3903,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
@@ -3894,7 +3917,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -3908,12 +3931,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>85</v>
@@ -3922,12 +3945,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>87</v>
@@ -3936,40 +3959,40 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>94</v>
@@ -3978,12 +4001,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>96</v>
@@ -3992,7 +4015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>98</v>
       </c>
@@ -4006,7 +4029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -4020,12 +4043,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>104</v>
@@ -4036,24 +4059,24 @@
     </row>
     <row r="38" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="B39" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>109</v>
@@ -4062,12 +4085,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>112</v>
@@ -4076,12 +4099,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>114</v>
@@ -4090,7 +4113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>116</v>
       </c>
@@ -4104,9 +4127,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>9</v>
@@ -4118,12 +4141,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>122</v>
@@ -4132,51 +4155,51 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="5" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="5" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="5" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="165" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>9</v>
@@ -4188,12 +4211,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>136</v>
@@ -4202,12 +4225,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>138</v>
@@ -4216,12 +4239,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>141</v>
@@ -4230,26 +4253,26 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="D52" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>146</v>
@@ -4258,12 +4281,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>149</v>
@@ -4272,12 +4295,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>151</v>
@@ -4286,12 +4309,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>154</v>
@@ -4300,40 +4323,40 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="5" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="5" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B59" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>162</v>
@@ -4342,40 +4365,40 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="5" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="5" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>171</v>
@@ -4384,12 +4407,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>173</v>
@@ -4398,12 +4421,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>176</v>
@@ -4412,79 +4435,79 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="5" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="5" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="5" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="5" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="5" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>9</v>
@@ -4510,68 +4533,68 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="D72" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="264" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>208</v>
@@ -4580,12 +4603,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>211</v>
@@ -4594,12 +4617,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="297" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>213</v>
@@ -4608,12 +4631,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>216</v>
@@ -4622,12 +4645,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="297" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>218</v>
@@ -4636,12 +4659,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>221</v>
@@ -4650,12 +4673,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>223</v>
@@ -4664,12 +4687,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>226</v>
@@ -4678,12 +4701,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>228</v>
@@ -4692,12 +4715,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>231</v>
@@ -4706,9 +4729,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>9</v>
@@ -4720,7 +4743,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>235</v>
       </c>
@@ -4734,26 +4757,26 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D88" s="5" t="s">
+    </row>
+    <row r="89" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B89" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>241</v>
@@ -4767,7 +4790,7 @@
         <v>243</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>244</v>
@@ -4776,12 +4799,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>246</v>
@@ -4790,54 +4813,54 @@
         <v>247</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>248</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D92" s="5" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="165" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="6" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D94" s="5" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B95" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>258</v>
@@ -4846,12 +4869,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>261</v>
@@ -4860,12 +4883,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>263</v>
@@ -4874,12 +4897,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>266</v>
@@ -4888,26 +4911,26 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="5" t="s">
+    </row>
+    <row r="100" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B100" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>271</v>
@@ -4916,7 +4939,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>273</v>
       </c>
@@ -4927,10 +4950,10 @@
         <v>274</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>8</v>
       </c>
@@ -4938,32 +4961,32 @@
         <v>9</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="330" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>280</v>
@@ -4972,12 +4995,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>282</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>283</v>
@@ -4986,12 +5009,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="330" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>285</v>
@@ -5000,12 +5023,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>288</v>
@@ -5014,12 +5037,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>290</v>
@@ -5028,7 +5051,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>292</v>
       </c>
@@ -5042,12 +5065,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>295</v>
@@ -5056,26 +5079,26 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>300</v>
@@ -5084,12 +5107,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>302</v>
@@ -5098,12 +5121,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>305</v>
@@ -5112,12 +5135,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>307</v>
@@ -5140,9 +5163,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>9</v>
@@ -5154,12 +5177,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>314</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>315</v>
@@ -5168,12 +5191,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="363" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>317</v>
@@ -5182,12 +5205,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>319</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>320</v>
@@ -5196,12 +5219,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="363" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>322</v>
@@ -5210,12 +5233,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>324</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>325</v>
@@ -5224,26 +5247,26 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="D123" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="165" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>330</v>
@@ -5252,12 +5275,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="297" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>332</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>333</v>
@@ -5266,26 +5289,26 @@
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D126" s="5" t="s">
+    </row>
+    <row r="127" spans="1:4" ht="297" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="165" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B127" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>338</v>
@@ -5294,12 +5317,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>340</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>341</v>
@@ -5308,12 +5331,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>343</v>
@@ -5322,7 +5345,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>345</v>
       </c>
@@ -5336,7 +5359,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>8</v>
       </c>
@@ -5350,12 +5373,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>350</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>351</v>
@@ -5364,12 +5387,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>353</v>
@@ -5383,7 +5406,7 @@
         <v>355</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>356</v>
@@ -5392,12 +5415,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>358</v>
@@ -5406,12 +5429,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="363" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>360</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>361</v>
@@ -5420,12 +5443,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>363</v>
@@ -5434,7 +5457,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="363" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>365</v>
       </c>
@@ -5448,7 +5471,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>8</v>
       </c>
@@ -5462,12 +5485,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>371</v>
@@ -5476,12 +5499,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>373</v>
@@ -5490,12 +5513,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>375</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>376</v>
@@ -5504,12 +5527,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>378</v>
@@ -5518,12 +5541,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>380</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>381</v>
@@ -5532,12 +5555,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>383</v>
@@ -5546,7 +5569,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>385</v>
       </c>
@@ -5562,7 +5585,7 @@
     </row>
     <row r="147" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>9</v>
@@ -5574,12 +5597,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>390</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>391</v>
@@ -5588,12 +5611,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>393</v>
@@ -5602,54 +5625,54 @@
         <v>394</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>395</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>396</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>402</v>
@@ -5658,7 +5681,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>404</v>
       </c>
@@ -5672,54 +5695,54 @@
         <v>406</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D155" s="5" t="s">
+    </row>
+    <row r="156" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="B156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" s="6" t="s">
+      <c r="D156" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D156" s="5" t="s">
+    </row>
+    <row r="157" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="231" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+      <c r="B157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C157" s="6" t="s">
+      <c r="D157" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>416</v>
@@ -5728,7 +5751,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>418</v>
       </c>
@@ -5742,7 +5765,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>8</v>
       </c>
@@ -5756,12 +5779,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>424</v>
@@ -5770,26 +5793,26 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D162" s="5" t="s">
+    </row>
+    <row r="163" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="B163" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>429</v>
@@ -5798,12 +5821,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>431</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>432</v>
@@ -5812,12 +5835,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>434</v>
@@ -5826,7 +5849,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>436</v>
       </c>
@@ -5840,26 +5863,26 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D167" s="5" t="s">
+    </row>
+    <row r="168" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="198" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B168" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>442</v>
@@ -5868,12 +5891,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>444</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>445</v>
@@ -5882,12 +5905,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>447</v>
@@ -5896,12 +5919,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>450</v>
@@ -5910,12 +5933,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>452</v>
@@ -5938,7 +5961,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="231" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>8</v>
       </c>
@@ -5952,12 +5975,12 @@
         <v>458</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>459</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>460</v>
@@ -5966,26 +5989,26 @@
         <v>461</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" s="6" t="s">
+      <c r="D176" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D176" s="5" t="s">
+    </row>
+    <row r="177" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B177" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>465</v>
@@ -5994,12 +6017,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>467</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>468</v>
@@ -6008,12 +6031,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>470</v>
@@ -6022,7 +6045,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>472</v>
       </c>
@@ -6036,7 +6059,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>8</v>
       </c>
@@ -6050,12 +6073,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>477</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>478</v>
@@ -6064,26 +6087,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D183" s="5" t="s">
+    </row>
+    <row r="184" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B184" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>483</v>
@@ -6092,12 +6115,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>486</v>
@@ -6106,12 +6129,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>488</v>
@@ -6120,7 +6143,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>490</v>
       </c>
@@ -6134,9 +6157,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>9</v>
@@ -6148,12 +6171,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>495</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>496</v>
@@ -6164,24 +6187,24 @@
     </row>
     <row r="190" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C190" s="6" t="s">
+      <c r="D190" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D190" s="5" t="s">
+    </row>
+    <row r="191" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B191" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>501</v>
@@ -6190,12 +6213,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>503</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>504</v>
@@ -6204,12 +6227,12 @@
         <v>505</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>506</v>
@@ -6218,7 +6241,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>508</v>
       </c>
@@ -6232,7 +6255,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>8</v>
       </c>
@@ -6246,12 +6269,12 @@
         <v>512</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>513</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>514</v>
@@ -6260,26 +6283,26 @@
         <v>515</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D197" s="5" t="s">
+    </row>
+    <row r="198" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B198" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>519</v>
@@ -6288,12 +6311,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>521</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>522</v>
@@ -6302,12 +6325,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>524</v>
@@ -6316,7 +6339,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>526</v>
       </c>
@@ -6330,7 +6353,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>8</v>
       </c>
@@ -6344,12 +6367,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>531</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>532</v>
@@ -6358,12 +6381,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>534</v>
@@ -6372,12 +6395,12 @@
         <v>535</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>536</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>537</v>
@@ -6386,12 +6409,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>539</v>
@@ -6405,7 +6428,7 @@
         <v>541</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>542</v>
@@ -6414,12 +6437,12 @@
         <v>543</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>544</v>
@@ -6428,12 +6451,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>546</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>547</v>
@@ -6442,7 +6465,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>8</v>
       </c>
@@ -6454,6 +6477,34 @@
       </c>
       <c r="D210" s="5" t="s">
         <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A211" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A212" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
